--- a/Symphony/2021/AUGUST/All Details/12.08.2021/MC Bank Statement August-2021.xlsx
+++ b/Symphony/2021/AUGUST/All Details/12.08.2021/MC Bank Statement August-2021.xlsx
@@ -96,7 +96,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="224">
   <si>
     <t>Date</t>
   </si>
@@ -9388,11 +9388,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
     <mergeCell ref="A1:Q1"/>
     <mergeCell ref="A2:Q2"/>
     <mergeCell ref="A3:Q3"/>
@@ -9407,6 +9402,11 @@
     <mergeCell ref="H4:H5"/>
     <mergeCell ref="I4:I5"/>
     <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.39370078740157483" bottom="0" header="0" footer="0"/>
@@ -9420,8 +9420,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CS1357"/>
   <sheetViews>
-    <sheetView topLeftCell="A106" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D121" sqref="D121"/>
+    <sheetView topLeftCell="A34" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -10970,14 +10970,14 @@
         <v>760420</v>
       </c>
       <c r="C15" s="88">
-        <v>745555</v>
+        <v>702110</v>
       </c>
       <c r="D15" s="88">
         <v>1515</v>
       </c>
       <c r="E15" s="88">
         <f t="shared" si="0"/>
-        <v>747070</v>
+        <v>703625</v>
       </c>
       <c r="F15" s="328"/>
       <c r="G15" s="336"/>
@@ -12816,7 +12816,7 @@
       </c>
       <c r="C33" s="248">
         <f>SUM(C5:C32)</f>
-        <v>5828431</v>
+        <v>5784986</v>
       </c>
       <c r="D33" s="248">
         <f>SUM(D5:D32)</f>
@@ -12824,11 +12824,11 @@
       </c>
       <c r="E33" s="248">
         <f>SUM(E5:E32)</f>
-        <v>5852996</v>
+        <v>5809551</v>
       </c>
       <c r="F33" s="333">
         <f>B33-E33</f>
-        <v>-56676</v>
+        <v>-13231</v>
       </c>
       <c r="G33" s="338"/>
       <c r="H33" s="191"/>
@@ -14204,10 +14204,10 @@
         <v>1718911905</v>
       </c>
       <c r="D46" s="273">
-        <v>374156</v>
+        <v>417601</v>
       </c>
       <c r="E46" s="240" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="F46" s="183"/>
       <c r="G46" s="190"/>
@@ -22389,7 +22389,7 @@
       <c r="C119" s="393"/>
       <c r="D119" s="277">
         <f>SUM(D37:D118)</f>
-        <v>1998338</v>
+        <v>2041783</v>
       </c>
       <c r="E119" s="269"/>
       <c r="F119" s="190"/>
@@ -22596,7 +22596,7 @@
       <c r="C121" s="381"/>
       <c r="D121" s="277">
         <f>D119+M121</f>
-        <v>1998338</v>
+        <v>2041783</v>
       </c>
       <c r="E121" s="269"/>
       <c r="F121" s="190"/>
@@ -32613,8 +32613,8 @@
   </sheetPr>
   <dimension ref="A1:AC223"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="G23" sqref="F23:G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -32807,7 +32807,7 @@
         <v>85</v>
       </c>
       <c r="E7" s="153">
-        <v>101890.55000000075</v>
+        <v>58445.550000000745</v>
       </c>
       <c r="F7" s="8"/>
       <c r="G7" s="347"/>
@@ -32881,7 +32881,7 @@
         <v>13</v>
       </c>
       <c r="E9" s="65">
-        <v>1998338</v>
+        <v>2041783</v>
       </c>
       <c r="F9" s="8"/>
       <c r="G9" s="348"/>
@@ -32958,8 +32958,12 @@
       <c r="E11" s="173">
         <v>1701824</v>
       </c>
-      <c r="F11" s="8"/>
-      <c r="G11" s="348"/>
+      <c r="F11" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="G11" s="348" t="s">
+        <v>14</v>
+      </c>
       <c r="H11" s="346"/>
       <c r="I11" s="349"/>
       <c r="J11" s="8"/>
@@ -33365,7 +33369,7 @@
         <v>19</v>
       </c>
       <c r="B22" s="168">
-        <v>376556</v>
+        <v>417601</v>
       </c>
       <c r="C22" s="169"/>
       <c r="D22" s="69" t="s">
